--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1081086.15387254</v>
+        <v>1076781.488429552</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2160491.204006264</v>
+        <v>2160491.204006263</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6513032.961632385</v>
+        <v>6513032.961632388</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8116340.131601266</v>
+        <v>8116340.131601267</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>274.950456326684</v>
       </c>
       <c r="G2" t="n">
-        <v>38.01246624282769</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>297.1127371532245</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -913,7 +913,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -952,7 +952,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>198.7552550095668</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>116.7363105126843</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -1068,16 +1068,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.9323416159872</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>182.9710794550239</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>92.31942756695285</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>191.2891483813031</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>194.9632162960284</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>312.6392012602315</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1627,7 +1627,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>269.1226583284727</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
@@ -1821,13 +1821,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>177.7856699752783</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.8313869843473</v>
       </c>
       <c r="H17" t="n">
-        <v>179.4133159344348</v>
+        <v>71.87332662397475</v>
       </c>
       <c r="I17" t="n">
-        <v>129.2532318950163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.06600571167706</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>160.296822096844</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.179222991945</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1940,10 +1940,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H18" t="n">
-        <v>86.38229489247486</v>
+        <v>86.38229489247485</v>
       </c>
       <c r="I18" t="n">
-        <v>45.21383710579055</v>
+        <v>45.21383710579049</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.04250582871806</v>
+        <v>17.04250582871794</v>
       </c>
       <c r="S18" t="n">
-        <v>131.5962913112782</v>
+        <v>131.5962913112781</v>
       </c>
       <c r="T18" t="n">
         <v>174.783209192548</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>146.8834918809614</v>
+        <v>146.883491880963</v>
       </c>
       <c r="U19" t="n">
         <v>282.5795167355755</v>
@@ -2086,19 +2086,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>408.8313869843473</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7966226942565</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>243.9431807810186</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>86.17099943807833</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2177,10 +2177,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H21" t="n">
-        <v>86.38229489247486</v>
+        <v>86.38229489247485</v>
       </c>
       <c r="I21" t="n">
-        <v>45.21383710579055</v>
+        <v>45.21383710579048</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.04250582871806</v>
+        <v>17.04250582871793</v>
       </c>
       <c r="S21" t="n">
-        <v>131.5962913112782</v>
+        <v>131.5962913112781</v>
       </c>
       <c r="T21" t="n">
         <v>174.783209192548</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>146.883491880963</v>
       </c>
       <c r="U22" t="n">
         <v>282.5795167355755</v>
@@ -2304,7 +2304,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>146.8834918809619</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>266.612365375354</v>
       </c>
       <c r="W23" t="n">
-        <v>152.7430060483362</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2417,7 +2417,7 @@
         <v>84.32029961295801</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.78655434059786</v>
+        <v>3.786554340597903</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>105.1877394434238</v>
+        <v>142.1044348809295</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>340.0305251432267</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>146.9152817672261</v>
       </c>
       <c r="T26" t="n">
         <v>218.6444459974996</v>
@@ -2654,7 +2654,7 @@
         <v>84.32029961295801</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.78655434059786</v>
+        <v>3.786554340597903</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>143.4055528716345</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.9042903189917</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2809,7 +2809,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>152.4706207287577</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>181.0739242066348</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2888,10 +2888,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H30" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597846</v>
+        <v>3.786554340597903</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>66.8702137004011</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>2.153501776035653</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>2.072549941104824</v>
       </c>
       <c r="G32" t="n">
         <v>408.4323500200001</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>152.4706207287579</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3125,10 +3125,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H33" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I33" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597903</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124798</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>230.6257550217532</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.66783807881623</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>78.82394243884939</v>
+        <v>216.7881842532339</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3362,10 +3362,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H36" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597903</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124798</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.263405521905971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>87.52641650213928</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3520,10 +3520,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>14.14617467342488</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>152.4706207287566</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3599,10 +3599,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H39" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I39" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597903</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>47.7445420237523</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>118.6317237282897</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3742,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>113.8693593270195</v>
@@ -3799,13 +3799,13 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>164.4815102745534</v>
       </c>
       <c r="W41" t="n">
-        <v>285.887609186275</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3836,10 +3836,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H42" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597903</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3957,10 +3957,10 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>107.773145304966</v>
       </c>
       <c r="W43" t="n">
-        <v>124.9506916257168</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3982,22 +3982,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>154.8611665249461</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>315.6852775463342</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4073,10 +4073,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597895</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>76.19311257242924</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>118.6317237282898</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.610151886306</v>
+        <v>1135.605887747958</v>
       </c>
       <c r="C2" t="n">
-        <v>1305.434650389236</v>
+        <v>742.4303862508882</v>
       </c>
       <c r="D2" t="n">
-        <v>919.9935216059041</v>
+        <v>742.4303862508882</v>
       </c>
       <c r="E2" t="n">
-        <v>517.4099967224486</v>
+        <v>339.8468613674327</v>
       </c>
       <c r="F2" t="n">
-        <v>100.5155582524263</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G2" t="n">
         <v>62.11912770411553</v>
@@ -4330,19 +4330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4357,25 +4357,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U2" t="n">
-        <v>2812.210741925897</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V2" t="n">
-        <v>2470.103932629415</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W2" t="n">
-        <v>2099.104897597703</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X2" t="n">
-        <v>2099.104897597703</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2099.104897597703</v>
+        <v>1536.100633459355</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M3" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P3" t="n">
         <v>2146.089571124861</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1680.200975352922</v>
+        <v>1918.956772915448</v>
       </c>
       <c r="C5" t="n">
-        <v>1680.200975352922</v>
+        <v>1918.956772915448</v>
       </c>
       <c r="D5" t="n">
-        <v>1294.75984656959</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E5" t="n">
-        <v>892.1763216861347</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F5" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H5" t="n">
         <v>62.11912770411553</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U5" t="n">
-        <v>2477.186430143718</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V5" t="n">
-        <v>2477.186430143718</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W5" t="n">
-        <v>2477.186430143718</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X5" t="n">
-        <v>2477.186430143718</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2080.695721064319</v>
+        <v>2319.451518626845</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N6" t="n">
         <v>1458.313011372373</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>492.9193397962676</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4758,19 +4758,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2535.796644191037</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="C8" t="n">
-        <v>2142.621142693967</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="D8" t="n">
-        <v>1757.180013910635</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="E8" t="n">
-        <v>1354.596489027179</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G8" t="n">
         <v>524.5392950451601</v>
@@ -4831,25 +4831,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2498.870828404634</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>2127.871793372921</v>
       </c>
       <c r="X8" t="n">
-        <v>3105.956385205776</v>
+        <v>1738.419188305978</v>
       </c>
       <c r="Y8" t="n">
-        <v>2709.465676126377</v>
+        <v>1341.928479226579</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4992,22 +4992,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1347.15046053384</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9749590367708</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D11" t="n">
-        <v>568.5338302534385</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E11" t="n">
-        <v>568.5338302534385</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F11" t="n">
-        <v>568.5338302534385</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G11" t="n">
-        <v>155.3710747414416</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411552</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>2508.096846343893</v>
+        <v>2335.842504695283</v>
       </c>
       <c r="W11" t="n">
-        <v>2137.097811312181</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="X11" t="n">
-        <v>1747.645206245237</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="Y11" t="n">
-        <v>1747.645206245237</v>
+        <v>2142.621142693967</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5226,25 +5226,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U13" t="n">
-        <v>678.1273584875689</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V13" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W13" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X13" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2150.355515407704</v>
+        <v>1917.497673893109</v>
       </c>
       <c r="C14" t="n">
-        <v>1757.180013910635</v>
+        <v>1917.497673893109</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1532.056545109777</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5311,19 +5311,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U14" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V14" t="n">
-        <v>2150.355515407704</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W14" t="n">
-        <v>2150.355515407704</v>
+        <v>2306.950278960052</v>
       </c>
       <c r="X14" t="n">
-        <v>2150.355515407704</v>
+        <v>1917.497673893109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2150.355515407704</v>
+        <v>1917.497673893109</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>62.11912770411552</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411552</v>
@@ -5460,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="V16" t="n">
-        <v>115.6912334709294</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>771.6964844739427</v>
+        <v>2150.391501639916</v>
       </c>
       <c r="C17" t="n">
-        <v>378.5209829768733</v>
+        <v>1757.216000142846</v>
       </c>
       <c r="D17" t="n">
-        <v>378.5209829768733</v>
+        <v>1371.774871359514</v>
       </c>
       <c r="E17" t="n">
-        <v>378.5209829768733</v>
+        <v>969.1913464760582</v>
       </c>
       <c r="F17" t="n">
-        <v>378.5209829768733</v>
+        <v>552.296908006036</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5209829768733</v>
+        <v>139.3359110521498</v>
       </c>
       <c r="H17" t="n">
-        <v>197.295411325929</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="I17" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="J17" t="n">
-        <v>228.1696018523348</v>
+        <v>228.1696018523349</v>
       </c>
       <c r="K17" t="n">
-        <v>612.3056806068519</v>
+        <v>612.3056806068527</v>
       </c>
       <c r="L17" t="n">
-        <v>1136.831389612606</v>
+        <v>1136.831389612607</v>
       </c>
       <c r="M17" t="n">
-        <v>1717.55432902943</v>
+        <v>1717.554329029432</v>
       </c>
       <c r="N17" t="n">
-        <v>2280.649490936953</v>
+        <v>2280.649490936956</v>
       </c>
       <c r="O17" t="n">
-        <v>2754.006657546709</v>
+        <v>2754.006657546712</v>
       </c>
       <c r="P17" t="n">
-        <v>3130.629921188929</v>
+        <v>3130.629921188933</v>
       </c>
       <c r="Q17" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="R17" t="n">
-        <v>3311.510363809087</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="S17" t="n">
-        <v>3149.594381893083</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="T17" t="n">
-        <v>2926.976977540628</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="U17" t="n">
-        <v>2671.240388659876</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="V17" t="n">
-        <v>2329.133579363394</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="W17" t="n">
-        <v>1958.134544331682</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="X17" t="n">
-        <v>1568.681939264739</v>
+        <v>2947.376956430711</v>
       </c>
       <c r="Y17" t="n">
-        <v>1172.19123018534</v>
+        <v>2550.886247351312</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>319.61384466942</v>
       </c>
       <c r="G18" t="n">
-        <v>199.6619770867867</v>
+        <v>199.6619770867868</v>
       </c>
       <c r="H18" t="n">
         <v>112.4071337610546</v>
       </c>
       <c r="I18" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="J18" t="n">
-        <v>66.73659122995299</v>
+        <v>189.8475548551843</v>
       </c>
       <c r="K18" t="n">
-        <v>66.73659122995299</v>
+        <v>526.6714252759102</v>
       </c>
       <c r="L18" t="n">
-        <v>573.2751974142075</v>
+        <v>1033.210031460165</v>
       </c>
       <c r="M18" t="n">
-        <v>1227.854694670801</v>
+        <v>1687.789528716759</v>
       </c>
       <c r="N18" t="n">
-        <v>1227.854694670801</v>
+        <v>1687.789528716759</v>
       </c>
       <c r="O18" t="n">
-        <v>1769.547996309383</v>
+        <v>2123.184511511796</v>
       </c>
       <c r="P18" t="n">
-        <v>2195.372932104041</v>
+        <v>2123.184511511796</v>
       </c>
       <c r="Q18" t="n">
-        <v>2371.055152615259</v>
+        <v>2371.055152615258</v>
       </c>
       <c r="R18" t="n">
         <v>2353.840500263018</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="C19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="D19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="E19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="F19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="G19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="H19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="K19" t="n">
-        <v>158.8770705324135</v>
+        <v>158.8770705324138</v>
       </c>
       <c r="L19" t="n">
-        <v>336.1921232544489</v>
+        <v>336.1921232544494</v>
       </c>
       <c r="M19" t="n">
-        <v>536.3879794294578</v>
+        <v>536.3879794294585</v>
       </c>
       <c r="N19" t="n">
-        <v>733.1512786480431</v>
+        <v>733.151278648044</v>
       </c>
       <c r="O19" t="n">
-        <v>908.3935224516667</v>
+        <v>908.3935224516679</v>
       </c>
       <c r="P19" t="n">
-        <v>1038.997665514104</v>
+        <v>1038.997665514105</v>
       </c>
       <c r="Q19" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282536</v>
       </c>
       <c r="R19" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282536</v>
       </c>
       <c r="S19" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282536</v>
       </c>
       <c r="T19" t="n">
         <v>901.4801937664113</v>
@@ -5709,16 +5709,16 @@
         <v>616.0463384779512</v>
       </c>
       <c r="V19" t="n">
-        <v>350.0669932987753</v>
+        <v>350.0669932987755</v>
       </c>
       <c r="W19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="X19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995309</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.3310090645</v>
+        <v>1692.351053034386</v>
       </c>
       <c r="C20" t="n">
-        <v>1187.155507567431</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="D20" t="n">
-        <v>801.7143787840982</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E20" t="n">
-        <v>801.7143787840982</v>
+        <v>896.5920266538615</v>
       </c>
       <c r="F20" t="n">
-        <v>801.7143787840982</v>
+        <v>479.6975881838393</v>
       </c>
       <c r="G20" t="n">
-        <v>388.7533818302121</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="H20" t="n">
-        <v>66.73659122995301</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="I20" t="n">
-        <v>66.73659122995301</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="J20" t="n">
-        <v>228.1696018523344</v>
+        <v>228.169601852335</v>
       </c>
       <c r="K20" t="n">
-        <v>612.3056806068512</v>
+        <v>612.3056806068528</v>
       </c>
       <c r="L20" t="n">
-        <v>1136.831389612604</v>
+        <v>1136.831389612606</v>
       </c>
       <c r="M20" t="n">
-        <v>1717.554329029429</v>
+        <v>1717.554329029432</v>
       </c>
       <c r="N20" t="n">
-        <v>2280.649490936952</v>
+        <v>2280.649490936956</v>
       </c>
       <c r="O20" t="n">
-        <v>2754.006657546708</v>
+        <v>2754.006657546713</v>
       </c>
       <c r="P20" t="n">
-        <v>3130.629921188929</v>
+        <v>3130.629921188933</v>
       </c>
       <c r="Q20" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="R20" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="S20" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="T20" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="U20" t="n">
-        <v>3090.42230818349</v>
+        <v>3336.829561497655</v>
       </c>
       <c r="V20" t="n">
-        <v>2748.315498887008</v>
+        <v>3249.788147923838</v>
       </c>
       <c r="W20" t="n">
-        <v>2377.316463855296</v>
+        <v>2878.789112892126</v>
       </c>
       <c r="X20" t="n">
-        <v>2377.316463855296</v>
+        <v>2489.336507825182</v>
       </c>
       <c r="Y20" t="n">
-        <v>1980.825754775897</v>
+        <v>2092.845798745783</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I21" t="n">
-        <v>66.73659122995301</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="J21" t="n">
-        <v>189.8475548551841</v>
+        <v>189.8475548551843</v>
       </c>
       <c r="K21" t="n">
-        <v>526.6714252759095</v>
+        <v>526.6714252759102</v>
       </c>
       <c r="L21" t="n">
-        <v>1033.210031460164</v>
+        <v>1033.210031460165</v>
       </c>
       <c r="M21" t="n">
-        <v>1033.210031460164</v>
+        <v>1033.210031460165</v>
       </c>
       <c r="N21" t="n">
-        <v>1155.666274078557</v>
+        <v>1697.359575717137</v>
       </c>
       <c r="O21" t="n">
-        <v>1697.359575717138</v>
+        <v>1697.359575717137</v>
       </c>
       <c r="P21" t="n">
-        <v>2123.184511511797</v>
+        <v>2123.184511511796</v>
       </c>
       <c r="Q21" t="n">
-        <v>2371.055152615259</v>
+        <v>2371.055152615258</v>
       </c>
       <c r="R21" t="n">
         <v>2353.840500263018</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="C22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="D22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="E22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="F22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="G22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="H22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="I22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="J22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="K22" t="n">
-        <v>2445.859274747529</v>
+        <v>158.8770705324138</v>
       </c>
       <c r="L22" t="n">
-        <v>2623.174327469565</v>
+        <v>336.1921232544494</v>
       </c>
       <c r="M22" t="n">
-        <v>2823.370183644573</v>
+        <v>536.3879794294586</v>
       </c>
       <c r="N22" t="n">
-        <v>3020.133482863159</v>
+        <v>733.1512786480441</v>
       </c>
       <c r="O22" t="n">
-        <v>3195.375726666783</v>
+        <v>908.393522451668</v>
       </c>
       <c r="P22" t="n">
-        <v>3325.979869729219</v>
+        <v>1038.997665514105</v>
       </c>
       <c r="Q22" t="n">
-        <v>3336.82956149765</v>
+        <v>1049.847357282536</v>
       </c>
       <c r="R22" t="n">
-        <v>3336.82956149765</v>
+        <v>1049.847357282536</v>
       </c>
       <c r="S22" t="n">
-        <v>3336.82956149765</v>
+        <v>1049.847357282536</v>
       </c>
       <c r="T22" t="n">
-        <v>3336.82956149765</v>
+        <v>901.4801937664113</v>
       </c>
       <c r="U22" t="n">
-        <v>3051.39570620919</v>
+        <v>616.0463384779512</v>
       </c>
       <c r="V22" t="n">
-        <v>2785.416361030014</v>
+        <v>350.0669932987755</v>
       </c>
       <c r="W22" t="n">
-        <v>2502.085958961192</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="X22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
       <c r="Y22" t="n">
-        <v>2353.718795445069</v>
+        <v>66.73659122995309</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2201.633309370652</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C23" t="n">
-        <v>1808.457807873582</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D23" t="n">
-        <v>1423.01667909025</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E23" t="n">
-        <v>1020.433154206794</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F23" t="n">
-        <v>603.5387157367721</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G23" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K23" t="n">
         <v>705.3108151130496</v>
@@ -5998,43 +5998,43 @@
         <v>1292.177839612517</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O23" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361769</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130633</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="T23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="U23" t="n">
-        <v>3542.35723392368</v>
+        <v>3542.357233923678</v>
       </c>
       <c r="V23" t="n">
-        <v>3542.35723392368</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W23" t="n">
-        <v>3388.071369228391</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X23" t="n">
-        <v>2998.618764161447</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y23" t="n">
-        <v>2602.128055082048</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1148584066127</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G24" t="n">
         <v>199.3786510244077</v>
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481679</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>589.9971470274368</v>
       </c>
       <c r="L24" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="N24" t="n">
-        <v>2074.797953750985</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2651.80525389589</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="C25" t="n">
-        <v>2651.80525389589</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.80525389589</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.80525389589</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.80525389589</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R25" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S25" t="n">
-        <v>3580.109170047681</v>
+        <v>1078.677721832085</v>
       </c>
       <c r="T25" t="n">
-        <v>3345.549327117143</v>
+        <v>1078.677721832085</v>
       </c>
       <c r="U25" t="n">
-        <v>3060.125333770548</v>
+        <v>793.2537284854906</v>
       </c>
       <c r="V25" t="n">
-        <v>3060.125333770548</v>
+        <v>527.2743833063148</v>
       </c>
       <c r="W25" t="n">
-        <v>3060.125333770548</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="X25" t="n">
-        <v>3060.125333770548</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="Y25" t="n">
-        <v>2837.013272587192</v>
+        <v>243.9439812374924</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1269.229275930392</v>
+        <v>1674.055825181743</v>
       </c>
       <c r="C26" t="n">
-        <v>925.7640990180421</v>
+        <v>1280.880323684673</v>
       </c>
       <c r="D26" t="n">
-        <v>925.7640990180421</v>
+        <v>895.4391949013411</v>
       </c>
       <c r="E26" t="n">
-        <v>925.7640990180421</v>
+        <v>492.8556700178856</v>
       </c>
       <c r="F26" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O26" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.76989136177</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130634</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340868</v>
+        <v>3649.662302880821</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585818</v>
+        <v>3428.809327125771</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116325</v>
+        <v>3173.104983656279</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819844</v>
+        <v>2830.998174359798</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788131</v>
+        <v>2459.999139328085</v>
       </c>
       <c r="X26" t="n">
-        <v>2066.214730721188</v>
+        <v>2070.546534261142</v>
       </c>
       <c r="Y26" t="n">
-        <v>1669.724021641789</v>
+        <v>1674.055825181743</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J27" t="n">
-        <v>219.0418890481681</v>
+        <v>219.0418890481679</v>
       </c>
       <c r="K27" t="n">
-        <v>589.997147027437</v>
+        <v>589.9971470274368</v>
       </c>
       <c r="L27" t="n">
-        <v>1142.429615858993</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="M27" t="n">
-        <v>1294.106752377725</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="N27" t="n">
-        <v>1294.106752377725</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="O27" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>220.8153253575953</v>
+        <v>387.4838144505526</v>
       </c>
       <c r="C28" t="n">
-        <v>75.96123154786345</v>
+        <v>217.2786965165419</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786345</v>
+        <v>217.2786965165419</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786345</v>
+        <v>217.2786965165419</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786345</v>
+        <v>217.2786965165419</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="K28" t="n">
-        <v>188.6896288950474</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L28" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955793</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N28" t="n">
-        <v>844.20395492894</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O28" t="n">
         <v>1044.49322140544</v>
@@ -6411,25 +6411,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S28" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T28" t="n">
-        <v>789.5697207730117</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U28" t="n">
-        <v>504.1457274264176</v>
+        <v>936.7935616985508</v>
       </c>
       <c r="V28" t="n">
-        <v>504.1457274264176</v>
+        <v>670.814216519375</v>
       </c>
       <c r="W28" t="n">
-        <v>220.8153253575953</v>
+        <v>387.4838144505526</v>
       </c>
       <c r="X28" t="n">
-        <v>220.8153253575953</v>
+        <v>387.4838144505526</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8153253575953</v>
+        <v>387.4838144505526</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2240.624482503721</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C29" t="n">
-        <v>1847.448981006651</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D29" t="n">
-        <v>1462.007852223319</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E29" t="n">
-        <v>1059.424327339863</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F29" t="n">
-        <v>642.5298888698411</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G29" t="n">
-        <v>229.9719595567096</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="H29" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130493</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612516</v>
       </c>
       <c r="M29" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O29" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361769</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130633</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="S29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="T29" t="n">
-        <v>3798.061577393172</v>
+        <v>3615.158623649095</v>
       </c>
       <c r="U29" t="n">
-        <v>3798.061577393172</v>
+        <v>3615.158623649095</v>
       </c>
       <c r="V29" t="n">
-        <v>3798.061577393172</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W29" t="n">
-        <v>3427.06254236146</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X29" t="n">
-        <v>3037.609937294516</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y29" t="n">
-        <v>2641.119228215117</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="K30" t="n">
-        <v>311.1196293974964</v>
+        <v>446.9164895271322</v>
       </c>
       <c r="L30" t="n">
-        <v>311.1196293974964</v>
+        <v>999.3489583586877</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.255099689836</v>
+        <v>999.3489583586877</v>
       </c>
       <c r="N30" t="n">
         <v>1019.255099689836</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>233.6952980078889</v>
+        <v>414.1490991715032</v>
       </c>
       <c r="C31" t="n">
-        <v>233.6952980078889</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="D31" t="n">
-        <v>233.6952980078889</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="E31" t="n">
-        <v>78.13648586709138</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="F31" t="n">
-        <v>78.13648586709138</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="G31" t="n">
-        <v>78.13648586709138</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="K31" t="n">
-        <v>188.6896288950474</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L31" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O31" t="n">
         <v>1044.49322140544</v>
@@ -6651,22 +6651,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T31" t="n">
-        <v>987.6577121146066</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U31" t="n">
-        <v>702.2337187680125</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V31" t="n">
-        <v>702.2337187680125</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="W31" t="n">
-        <v>418.9033166991902</v>
+        <v>938.8871529763223</v>
       </c>
       <c r="X31" t="n">
-        <v>418.9033166991902</v>
+        <v>704.8068307593054</v>
       </c>
       <c r="Y31" t="n">
-        <v>418.9033166991902</v>
+        <v>481.6947695759487</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2086.613754494874</v>
+        <v>1269.229275930391</v>
       </c>
       <c r="C32" t="n">
-        <v>1693.438252997805</v>
+        <v>876.0537744333219</v>
       </c>
       <c r="D32" t="n">
-        <v>1307.997124214473</v>
+        <v>490.6126456499896</v>
       </c>
       <c r="E32" t="n">
-        <v>905.4135993310172</v>
+        <v>490.6126456499896</v>
       </c>
       <c r="F32" t="n">
         <v>488.5191608609949</v>
       </c>
       <c r="G32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="H32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130491</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612516</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O32" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361769</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130634</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340866</v>
       </c>
       <c r="T32" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585816</v>
       </c>
       <c r="U32" t="n">
-        <v>3798.061577393172</v>
+        <v>3168.773180116325</v>
       </c>
       <c r="V32" t="n">
-        <v>3644.050849384326</v>
+        <v>2826.666370819843</v>
       </c>
       <c r="W32" t="n">
-        <v>3273.051814352613</v>
+        <v>2455.66733578813</v>
       </c>
       <c r="X32" t="n">
-        <v>2883.59920928567</v>
+        <v>2066.214730721187</v>
       </c>
       <c r="Y32" t="n">
-        <v>2487.108500206271</v>
+        <v>1669.724021641788</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F33" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G33" t="n">
         <v>199.3786510244077</v>
@@ -6776,25 +6776,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481679</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>589.9971470274368</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671759</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.29381304741</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P33" t="n">
         <v>2352.277072610002</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.96123154786345</v>
+        <v>246.1663494818742</v>
       </c>
       <c r="C34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="D34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="K34" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L34" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M34" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O34" t="n">
         <v>1044.49322140544</v>
@@ -6888,22 +6888,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T34" t="n">
-        <v>1222.217555045145</v>
+        <v>987.6577121146059</v>
       </c>
       <c r="U34" t="n">
-        <v>936.7935616985515</v>
+        <v>702.2337187680118</v>
       </c>
       <c r="V34" t="n">
-        <v>670.8142165193757</v>
+        <v>702.2337187680118</v>
       </c>
       <c r="W34" t="n">
-        <v>387.4838144505533</v>
+        <v>702.2337187680118</v>
       </c>
       <c r="X34" t="n">
-        <v>153.4034922335364</v>
+        <v>469.2784106652308</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.96123154786345</v>
+        <v>246.1663494818742</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1269.229275930393</v>
+        <v>2238.039463728077</v>
       </c>
       <c r="C35" t="n">
-        <v>876.0537744333237</v>
+        <v>1844.863962231007</v>
       </c>
       <c r="D35" t="n">
-        <v>796.4336305556981</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E35" t="n">
-        <v>393.8501056722426</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F35" t="n">
-        <v>393.8501056722426</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G35" t="n">
         <v>393.8501056722426</v>
       </c>
       <c r="H35" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6949,40 +6949,40 @@
         <v>1942.267504401618</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O35" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361769</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130633</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340868</v>
+        <v>3645.330499340866</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585818</v>
+        <v>3424.477523585816</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116326</v>
+        <v>3424.477523585816</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819845</v>
+        <v>3424.477523585816</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788132</v>
+        <v>3424.477523585816</v>
       </c>
       <c r="X35" t="n">
-        <v>2066.214730721189</v>
+        <v>3035.024918518873</v>
       </c>
       <c r="Y35" t="n">
-        <v>1669.72402164179</v>
+        <v>2638.534209439474</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481679</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>589.9971470274368</v>
       </c>
       <c r="L36" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="M36" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858992</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1734.412875421584</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2200.599936091269</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1037.009536353844</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="C37" t="n">
-        <v>866.8044184198334</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="D37" t="n">
-        <v>711.1713053223482</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="E37" t="n">
-        <v>555.6124931815507</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="F37" t="n">
-        <v>398.2865583945236</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="G37" t="n">
-        <v>230.3038087048946</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="H37" t="n">
-        <v>77.23739874170786</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="I37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="K37" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L37" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M37" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N37" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O37" t="n">
         <v>1044.49322140544</v>
@@ -7128,19 +7128,19 @@
         <v>1222.217555045145</v>
       </c>
       <c r="U37" t="n">
-        <v>1222.217555045145</v>
+        <v>936.7935616985508</v>
       </c>
       <c r="V37" t="n">
-        <v>1222.217555045145</v>
+        <v>670.814216519375</v>
       </c>
       <c r="W37" t="n">
-        <v>1222.217555045145</v>
+        <v>387.4838144505526</v>
       </c>
       <c r="X37" t="n">
-        <v>1222.217555045145</v>
+        <v>299.07329273122</v>
       </c>
       <c r="Y37" t="n">
-        <v>1222.217555045145</v>
+        <v>75.96123154786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1731.497529828243</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C38" t="n">
-        <v>1338.322028331173</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D38" t="n">
-        <v>1338.322028331173</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E38" t="n">
-        <v>1338.322028331173</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F38" t="n">
-        <v>921.4275898611513</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G38" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="H38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O38" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.76989136177</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130634</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="T38" t="n">
-        <v>3631.041434014176</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="U38" t="n">
-        <v>3631.041434014176</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="V38" t="n">
-        <v>3288.934624717695</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W38" t="n">
-        <v>2917.935589685982</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X38" t="n">
-        <v>2528.482984619039</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y38" t="n">
-        <v>2131.99227553964</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F39" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G39" t="n">
         <v>199.3786510244077</v>
@@ -7250,19 +7250,19 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J39" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="K39" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="L39" t="n">
-        <v>771.4743578797238</v>
+        <v>313.8895596758455</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.609828172063</v>
+        <v>1022.025029968185</v>
       </c>
       <c r="N39" t="n">
         <v>1760.29381304741</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>294.3931596068766</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="C40" t="n">
-        <v>124.1880416728658</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="D40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="E40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="F40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="G40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="H40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="I40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="K40" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L40" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M40" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N40" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O40" t="n">
         <v>1044.49322140544</v>
@@ -7362,22 +7362,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T40" t="n">
-        <v>1222.217555045145</v>
+        <v>987.6577121146059</v>
       </c>
       <c r="U40" t="n">
-        <v>936.7935616985515</v>
+        <v>702.2337187680118</v>
       </c>
       <c r="V40" t="n">
-        <v>936.7935616985515</v>
+        <v>582.4036948000424</v>
       </c>
       <c r="W40" t="n">
-        <v>936.7935616985515</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="X40" t="n">
-        <v>702.7132394815345</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="Y40" t="n">
-        <v>479.6011782981778</v>
+        <v>75.96123154786342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1740.905553214629</v>
+        <v>1816.192180587319</v>
       </c>
       <c r="C41" t="n">
-        <v>1740.905553214629</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="D41" t="n">
-        <v>1740.905553214629</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E41" t="n">
-        <v>1338.322028331173</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F41" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G41" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H41" t="n">
         <v>190.9807864236407</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K41" t="n">
         <v>705.3108151130496</v>
@@ -7420,43 +7420,43 @@
         <v>1292.177839612517</v>
       </c>
       <c r="M41" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O41" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.76989136177</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130634</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393171</v>
       </c>
       <c r="S41" t="n">
-        <v>3645.330499340868</v>
+        <v>3645.330499340866</v>
       </c>
       <c r="T41" t="n">
-        <v>3424.477523585818</v>
+        <v>3424.477523585816</v>
       </c>
       <c r="U41" t="n">
         <v>3168.773180116325</v>
       </c>
       <c r="V41" t="n">
-        <v>2826.666370819844</v>
+        <v>3002.630240445058</v>
       </c>
       <c r="W41" t="n">
-        <v>2537.891008005425</v>
+        <v>3002.630240445058</v>
       </c>
       <c r="X41" t="n">
-        <v>2537.891008005425</v>
+        <v>2613.177635378115</v>
       </c>
       <c r="Y41" t="n">
-        <v>2141.400298926026</v>
+        <v>2216.686926298716</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F42" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G42" t="n">
         <v>199.3786510244077</v>
@@ -7487,28 +7487,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="K42" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271322</v>
       </c>
       <c r="L42" t="n">
-        <v>313.8895596758445</v>
+        <v>999.3489583586877</v>
       </c>
       <c r="M42" t="n">
-        <v>1022.025029968184</v>
+        <v>999.3489583586877</v>
       </c>
       <c r="N42" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O42" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P42" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="C43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="D43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="E43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="F43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="H43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="I43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="K43" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L43" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M43" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N43" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O43" t="n">
         <v>1044.49322140544</v>
@@ -7599,22 +7599,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T43" t="n">
-        <v>987.6577121146066</v>
+        <v>987.6577121146059</v>
       </c>
       <c r="U43" t="n">
-        <v>702.2337187680125</v>
+        <v>702.2337187680118</v>
       </c>
       <c r="V43" t="n">
-        <v>436.2543735888368</v>
+        <v>593.3719558337027</v>
       </c>
       <c r="W43" t="n">
         <v>310.0415537648803</v>
       </c>
       <c r="X43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1589.361174422667</v>
+        <v>1816.192180587319</v>
       </c>
       <c r="C44" t="n">
-        <v>1196.185672925597</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="D44" t="n">
-        <v>810.7445441422649</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E44" t="n">
-        <v>810.7445441422649</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F44" t="n">
-        <v>393.8501056722426</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G44" t="n">
-        <v>393.8501056722426</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H44" t="n">
-        <v>75.96123154786346</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I44" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J44" t="n">
-        <v>270.923328087484</v>
+        <v>270.9233280874834</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130501</v>
+        <v>705.3108151130493</v>
       </c>
       <c r="L44" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.85181781862</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361769</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130633</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="S44" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.06157739317</v>
       </c>
       <c r="T44" t="n">
-        <v>3488.9050786086</v>
+        <v>3577.20860163812</v>
       </c>
       <c r="U44" t="n">
-        <v>3488.9050786086</v>
+        <v>3321.504258168628</v>
       </c>
       <c r="V44" t="n">
-        <v>3146.798269312118</v>
+        <v>3002.630240445058</v>
       </c>
       <c r="W44" t="n">
-        <v>2775.799234280406</v>
+        <v>3002.630240445058</v>
       </c>
       <c r="X44" t="n">
-        <v>2386.346629213463</v>
+        <v>2613.177635378115</v>
       </c>
       <c r="Y44" t="n">
-        <v>1989.855920134064</v>
+        <v>2216.686926298716</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9164895271324</v>
+        <v>446.9164895271322</v>
       </c>
       <c r="L45" t="n">
-        <v>999.3489583586882</v>
+        <v>999.3489583586879</v>
       </c>
       <c r="M45" t="n">
-        <v>999.3489583586882</v>
+        <v>999.3489583586879</v>
       </c>
       <c r="N45" t="n">
-        <v>1019.255099689836</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O45" t="n">
         <v>1611.238359252428</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="C46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="G46" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="H46" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="I46" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="J46" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786341</v>
       </c>
       <c r="K46" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950473</v>
       </c>
       <c r="L46" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422318</v>
       </c>
       <c r="M46" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955791</v>
       </c>
       <c r="N46" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289398</v>
       </c>
       <c r="O46" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P46" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T46" t="n">
-        <v>3563.501734462634</v>
+        <v>987.6577121146059</v>
       </c>
       <c r="U46" t="n">
-        <v>3278.07774111604</v>
+        <v>702.2337187680118</v>
       </c>
       <c r="V46" t="n">
-        <v>3012.098395936865</v>
+        <v>582.4036948000423</v>
       </c>
       <c r="W46" t="n">
-        <v>2728.767993868042</v>
+        <v>299.07329273122</v>
       </c>
       <c r="X46" t="n">
-        <v>2728.767993868042</v>
+        <v>299.07329273122</v>
       </c>
       <c r="Y46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786341</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>340.2745745069883</v>
+        <v>576.0417294606771</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>373.1055958271594</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8531,10 +8531,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8543,16 +8543,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>373.1055958271594</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8777,10 +8777,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9011,7 +9011,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>72.34750641868317</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>72.33963800151609</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>57.57678801837256</v>
+        <v>57.57678801837204</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>507.0531788357936</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>66.67572130591938</v>
       </c>
       <c r="Q18" t="n">
-        <v>254.8029723101019</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9488,13 +9488,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>65.30848807970324</v>
+        <v>65.30848807970268</v>
       </c>
       <c r="N21" t="n">
-        <v>181.2699623803856</v>
+        <v>728.4349135304647</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>67.26026692161535</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406341</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248237</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935417</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>475.592245707469</v>
       </c>
       <c r="O24" t="n">
-        <v>296.7442678660672</v>
+        <v>16.4623296246355</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983207</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995595</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9962,19 +9962,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>164.4207744261539</v>
+        <v>11.21154561935417</v>
       </c>
       <c r="N27" t="n">
-        <v>2.048060461574039</v>
+        <v>2.048060461574224</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705303</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995595</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406348</v>
       </c>
       <c r="K30" t="n">
-        <v>275.3972241541318</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>20.49834389404701</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935417</v>
       </c>
       <c r="N30" t="n">
-        <v>2.048060461573982</v>
+        <v>22.15527392738095</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>164.420774426155</v>
       </c>
       <c r="N33" t="n">
-        <v>430.0931537703123</v>
+        <v>2.048060461574224</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995604</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935417</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574224</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>203.3018656667569</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406348</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>37.86348895248248</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>260.8299884677665</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>285.5672371033382</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983202</v>
+        <v>25.9058981998322</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995604</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406348</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935417</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392738095</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406346</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>11.21154561935391</v>
+        <v>11.21154561935414</v>
       </c>
       <c r="N45" t="n">
-        <v>22.15527392737978</v>
+        <v>620.1181623744432</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463547</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22552,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>137.775037758638</v>
       </c>
       <c r="G2" t="n">
-        <v>371.0186617140491</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22615,7 +22615,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22789,7 +22789,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>84.47398034227439</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>54.43994726018056</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>51.76675624198641</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.5574566382957</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>155.7146617484929</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>228.5227923622214</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>175.9998963000923</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.3244398042876</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23466,19 +23466,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>87.62118754448963</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,13 +23497,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>85.91848837438943</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>69.56308287504413</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23673,10 +23673,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>104.7987338652398</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>408.8313869843473</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>139.3833067598216</v>
+        <v>246.9232960702817</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>129.2532318950161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.06600571167683</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>160.2968220968439</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>166.4819164376007</v>
       </c>
       <c r="H19" t="n">
-        <v>153.1271674224727</v>
+        <v>153.1271674224726</v>
       </c>
       <c r="I19" t="n">
         <v>129.0690572509242</v>
       </c>
       <c r="J19" t="n">
-        <v>23.73998494902336</v>
+        <v>23.73998494902325</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>199.2264929501066</v>
       </c>
       <c r="T19" t="n">
-        <v>86.09554621198095</v>
+        <v>86.09554621197935</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>318.7966226942564</v>
       </c>
       <c r="I20" t="n">
-        <v>129.2532318950163</v>
+        <v>129.2532318950161</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.06600571167706</v>
+        <v>25.06600571167681</v>
       </c>
       <c r="S20" t="n">
-        <v>160.296822096844</v>
+        <v>160.2968220968439</v>
       </c>
       <c r="T20" t="n">
         <v>220.3912303089296</v>
       </c>
       <c r="U20" t="n">
-        <v>9.236042210926399</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>252.5147417654385</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24144,13 +24144,13 @@
         <v>166.4819164376007</v>
       </c>
       <c r="H22" t="n">
-        <v>153.1271674224727</v>
+        <v>153.1271674224726</v>
       </c>
       <c r="I22" t="n">
         <v>129.0690572509242</v>
       </c>
       <c r="J22" t="n">
-        <v>23.73998494902336</v>
+        <v>23.73998494902323</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>199.2264929501066</v>
       </c>
       <c r="T22" t="n">
-        <v>232.9790380929424</v>
+        <v>86.09554621197935</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>84.85602711388483</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>72.07337582816274</v>
       </c>
       <c r="W23" t="n">
-        <v>214.5460386330592</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24378,7 +24378,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>151.5357458635549</v>
@@ -24387,7 +24387,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685203</v>
+        <v>11.08509183685207</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S25" t="n">
-        <v>90.919371984755</v>
+        <v>54.00267654724937</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>49.21322133887202</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.28848550455524</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>25.09751388303619</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>26.39863187374104</v>
       </c>
       <c r="H28" t="n">
         <v>151.5357458635549</v>
@@ -24624,7 +24624,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685203</v>
+        <v>11.08509183685207</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>162.2393646543777</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I29" t="n">
         <v>113.8693593270195</v>
@@ -24733,16 +24733,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>37.57052179086475</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>116.4857248039872</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>149.3822440875192</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685207</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.6529441442172</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270195</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>186.2151204747589</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25098,7 +25098,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685207</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.113763973093512</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.2131024927068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>302.7627750566496</v>
+        <v>164.7985332422651</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>122.4228066197135</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685207</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T37" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>144.2131024927074</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>204.4982713240747</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>186.2151204747602</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>106.3322399427581</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685207</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>144.6878279990943</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>174.2042309289634</v>
       </c>
       <c r="W41" t="n">
-        <v>81.40143549512044</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685207</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>155.546406422418</v>
       </c>
       <c r="W43" t="n">
-        <v>155.5464064224173</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>63.78327947255352</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>23.00046365718254</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>90.10980962030345</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
         <v>151.5357458635549</v>
@@ -26046,7 +26046,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685206</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S46" t="n">
         <v>196.1071114281788</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>144.6878279990942</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>662286.0115214495</v>
+        <v>662286.0115214498</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>662286.0115214495</v>
+        <v>662286.0115214497</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662286.0115214497</v>
+        <v>662286.0115214495</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662286.0115214495</v>
+        <v>662286.0115214494</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>688377.0291835044</v>
+        <v>688377.0291835049</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>688377.0291835043</v>
+        <v>688377.0291835049</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740500.9392293451</v>
+        <v>740500.9392293448</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740500.9392293451</v>
+        <v>740500.9392293448</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740500.9392293451</v>
+        <v>740500.9392293449</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740500.9392293451</v>
+        <v>740500.9392293448</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740500.9392293452</v>
+        <v>740500.9392293449</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279889.8847950436</v>
+        <v>279889.8847950438</v>
       </c>
       <c r="C2" t="n">
         <v>279889.8847950437</v>
       </c>
       <c r="D2" t="n">
+        <v>279889.8847950438</v>
+      </c>
+      <c r="E2" t="n">
         <v>279889.8847950436</v>
       </c>
-      <c r="E2" t="n">
-        <v>279889.8847950437</v>
-      </c>
       <c r="F2" t="n">
-        <v>279889.8847950436</v>
+        <v>279889.8847950435</v>
       </c>
       <c r="G2" t="n">
-        <v>292196.2571638633</v>
+        <v>292196.2571638635</v>
       </c>
       <c r="H2" t="n">
-        <v>292196.2571638632</v>
+        <v>292196.2571638634</v>
       </c>
       <c r="I2" t="n">
-        <v>316781.5859023381</v>
+        <v>316781.585902338</v>
       </c>
       <c r="J2" t="n">
-        <v>316781.5859023378</v>
+        <v>316781.585902338</v>
       </c>
       <c r="K2" t="n">
         <v>316781.5859023381</v>
       </c>
       <c r="L2" t="n">
+        <v>316781.5859023382</v>
+      </c>
+      <c r="M2" t="n">
         <v>316781.5859023383</v>
-      </c>
-      <c r="M2" t="n">
-        <v>316781.5859023381</v>
       </c>
       <c r="N2" t="n">
         <v>316781.5859023381</v>
       </c>
       <c r="O2" t="n">
-        <v>316781.5859023379</v>
+        <v>316781.5859023383</v>
       </c>
       <c r="P2" t="n">
         <v>316781.5859023381</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54449.60099636416</v>
+        <v>54449.60099636519</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105381.0203487483</v>
+        <v>105381.0203487469</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.713112695</v>
+        <v>203163.7131126951</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13889.96518695394</v>
+        <v>13889.96518695423</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>52165.99257608331</v>
       </c>
       <c r="C4" t="n">
-        <v>52165.99257608332</v>
+        <v>52165.99257608331</v>
       </c>
       <c r="D4" t="n">
-        <v>52165.99257608332</v>
+        <v>52165.99257608331</v>
       </c>
       <c r="E4" t="n">
         <v>52165.99257608331</v>
@@ -26432,10 +26432,10 @@
         <v>52165.99257608331</v>
       </c>
       <c r="G4" t="n">
-        <v>51436.10016813826</v>
+        <v>51436.10016813825</v>
       </c>
       <c r="H4" t="n">
-        <v>51436.10016813826</v>
+        <v>51436.10016813825</v>
       </c>
       <c r="I4" t="n">
         <v>49977.94139841729</v>
@@ -26484,34 +26484,34 @@
         <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>51802.95469354862</v>
+        <v>51802.95469354871</v>
       </c>
       <c r="H5" t="n">
-        <v>51802.95469354863</v>
+        <v>51802.95469354872</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.5590335745</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357451</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.5590335745</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357451</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.5590335745</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357451</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357451</v>
       </c>
       <c r="P5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.5590335745</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-113333.6002559963</v>
+        <v>-113864.6952878614</v>
       </c>
       <c r="C6" t="n">
-        <v>146885.7551638326</v>
+        <v>146354.6601319674</v>
       </c>
       <c r="D6" t="n">
-        <v>146885.7551638325</v>
+        <v>146354.6601319675</v>
       </c>
       <c r="E6" t="n">
-        <v>180513.3551638326</v>
+        <v>179982.2601319673</v>
       </c>
       <c r="F6" t="n">
-        <v>180513.3551638325</v>
+        <v>179982.2601319672</v>
       </c>
       <c r="G6" t="n">
-        <v>134507.6013058122</v>
+        <v>134032.4443301681</v>
       </c>
       <c r="H6" t="n">
-        <v>188957.2023021763</v>
+        <v>188482.0453265332</v>
       </c>
       <c r="I6" t="n">
-        <v>100445.065121598</v>
+        <v>100081.6596402219</v>
       </c>
       <c r="J6" t="n">
-        <v>2662.372357650951</v>
+        <v>2298.96687627364</v>
       </c>
       <c r="K6" t="n">
-        <v>205826.0854703463</v>
+        <v>205462.6799889689</v>
       </c>
       <c r="L6" t="n">
-        <v>205826.0854703464</v>
+        <v>205462.6799889689</v>
       </c>
       <c r="M6" t="n">
-        <v>205826.0854703463</v>
+        <v>205462.679988969</v>
       </c>
       <c r="N6" t="n">
-        <v>205826.0854703463</v>
+        <v>205462.6799889688</v>
       </c>
       <c r="O6" t="n">
-        <v>191936.1202833921</v>
+        <v>191572.7148020147</v>
       </c>
       <c r="P6" t="n">
-        <v>205826.0854703463</v>
+        <v>205462.6799889689</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671317</v>
+        <v>49.68556691671409</v>
       </c>
       <c r="H3" t="n">
-        <v>49.68556691671317</v>
+        <v>49.68556691671419</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980879</v>
+        <v>148.9460117980876</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980879</v>
+        <v>148.9460117980876</v>
       </c>
       <c r="K3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980876</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980876</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980876</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980876</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980876</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980877</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>834.2073903744124</v>
+        <v>834.2073903744136</v>
       </c>
       <c r="H4" t="n">
-        <v>834.2073903744125</v>
+        <v>834.2073903744136</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482926</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482927</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482926</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482927</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482926</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482927</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482927</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482926</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671317</v>
+        <v>49.68556691671409</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.26044488137477</v>
+        <v>99.26044488137345</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.7182940729685</v>
+        <v>57.71829407296968</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.3080039738805</v>
+        <v>115.308003973879</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.7182940729685</v>
+        <v>57.71829407296968</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.7182940729685</v>
+        <v>57.71829407296968</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1997409725295</v>
+        <v>0.1997409725295037</v>
       </c>
       <c r="H17" t="n">
-        <v>2.045597234917743</v>
+        <v>2.045597234917781</v>
       </c>
       <c r="I17" t="n">
-        <v>7.700513843443558</v>
+        <v>7.700513843443701</v>
       </c>
       <c r="J17" t="n">
-        <v>16.95276536722567</v>
+        <v>16.95276536722598</v>
       </c>
       <c r="K17" t="n">
-        <v>25.40780073439941</v>
+        <v>25.40780073439988</v>
       </c>
       <c r="L17" t="n">
-        <v>31.5206235224491</v>
+        <v>31.52062352244969</v>
       </c>
       <c r="M17" t="n">
-        <v>35.0727670426706</v>
+        <v>35.07276704267125</v>
       </c>
       <c r="N17" t="n">
-        <v>35.64028108087005</v>
+        <v>35.64028108087071</v>
       </c>
       <c r="O17" t="n">
-        <v>33.65410678527982</v>
+        <v>33.65410678528045</v>
       </c>
       <c r="P17" t="n">
-        <v>28.72300152595779</v>
+        <v>28.72300152595832</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.56977794724506</v>
+        <v>21.56977794724546</v>
       </c>
       <c r="R17" t="n">
-        <v>12.54697886565622</v>
+        <v>12.54697886565645</v>
       </c>
       <c r="S17" t="n">
-        <v>4.551597411515987</v>
+        <v>4.551597411516071</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8743661072478869</v>
+        <v>0.8743661072479031</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01597927780236</v>
+        <v>0.0159792778023603</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1068708420472698</v>
+        <v>0.1068708420472718</v>
       </c>
       <c r="H18" t="n">
-        <v>1.032147342930211</v>
+        <v>1.032147342930231</v>
       </c>
       <c r="I18" t="n">
-        <v>3.679544342416967</v>
+        <v>3.679544342417035</v>
       </c>
       <c r="J18" t="n">
-        <v>10.09695091465018</v>
+        <v>10.09695091465036</v>
       </c>
       <c r="K18" t="n">
-        <v>17.25729733181726</v>
+        <v>17.25729733181758</v>
       </c>
       <c r="L18" t="n">
-        <v>23.20456594539515</v>
+        <v>23.20456594539558</v>
       </c>
       <c r="M18" t="n">
-        <v>27.07863396960867</v>
+        <v>27.07863396960918</v>
       </c>
       <c r="N18" t="n">
-        <v>27.7953248357941</v>
+        <v>27.79532483579462</v>
       </c>
       <c r="O18" t="n">
-        <v>25.42729196727301</v>
+        <v>25.42729196727349</v>
       </c>
       <c r="P18" t="n">
-        <v>20.40764351339489</v>
+        <v>20.40764351339527</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.64196924098132</v>
+        <v>13.64196924098158</v>
       </c>
       <c r="R18" t="n">
-        <v>6.635366842198037</v>
+        <v>6.63536684219816</v>
       </c>
       <c r="S18" t="n">
-        <v>1.985079017851699</v>
+        <v>1.985079017851736</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4307644905326357</v>
+        <v>0.4307644905326438</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007030976450478282</v>
+        <v>0.007030976450478413</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08959692394817129</v>
+        <v>0.08959692394817295</v>
       </c>
       <c r="H19" t="n">
-        <v>0.796598105648287</v>
+        <v>0.7965981056483019</v>
       </c>
       <c r="I19" t="n">
-        <v>2.694423858368643</v>
+        <v>2.694423858368693</v>
       </c>
       <c r="J19" t="n">
-        <v>6.334502523135709</v>
+        <v>6.334502523135827</v>
       </c>
       <c r="K19" t="n">
-        <v>10.40953352779663</v>
+        <v>10.40953352779682</v>
       </c>
       <c r="L19" t="n">
-        <v>13.32061903862176</v>
+        <v>13.32061903862201</v>
       </c>
       <c r="M19" t="n">
-        <v>14.04472508762107</v>
+        <v>14.04472508762133</v>
       </c>
       <c r="N19" t="n">
-        <v>13.71077291654153</v>
+        <v>13.71077291654179</v>
       </c>
       <c r="O19" t="n">
-        <v>12.6641179413288</v>
+        <v>12.66411794132903</v>
       </c>
       <c r="P19" t="n">
-        <v>10.83634069278609</v>
+        <v>10.83634069278629</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.502520604423689</v>
+        <v>7.502520604423828</v>
       </c>
       <c r="R19" t="n">
-        <v>4.028603507705955</v>
+        <v>4.02860350770603</v>
       </c>
       <c r="S19" t="n">
-        <v>1.561430029169494</v>
+        <v>1.561430029169522</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3828232205058226</v>
+        <v>0.3828232205058298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00488710494262753</v>
+        <v>0.004887104942627621</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1997409725295</v>
+        <v>0.1997409725295041</v>
       </c>
       <c r="H20" t="n">
-        <v>2.045597234917743</v>
+        <v>2.045597234917785</v>
       </c>
       <c r="I20" t="n">
-        <v>7.700513843443558</v>
+        <v>7.700513843443715</v>
       </c>
       <c r="J20" t="n">
-        <v>16.95276536722567</v>
+        <v>16.95276536722601</v>
       </c>
       <c r="K20" t="n">
-        <v>25.40780073439941</v>
+        <v>25.40780073439993</v>
       </c>
       <c r="L20" t="n">
-        <v>31.5206235224491</v>
+        <v>31.52062352244975</v>
       </c>
       <c r="M20" t="n">
-        <v>35.0727670426706</v>
+        <v>35.07276704267132</v>
       </c>
       <c r="N20" t="n">
-        <v>35.64028108087005</v>
+        <v>35.64028108087077</v>
       </c>
       <c r="O20" t="n">
-        <v>33.65410678527982</v>
+        <v>33.65410678528051</v>
       </c>
       <c r="P20" t="n">
-        <v>28.72300152595779</v>
+        <v>28.72300152595838</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.56977794724506</v>
+        <v>21.5697779472455</v>
       </c>
       <c r="R20" t="n">
-        <v>12.54697886565622</v>
+        <v>12.54697886565647</v>
       </c>
       <c r="S20" t="n">
-        <v>4.551597411515987</v>
+        <v>4.55159741151608</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8743661072478869</v>
+        <v>0.8743661072479048</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01597927780236</v>
+        <v>0.01597927780236033</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1068708420472698</v>
+        <v>0.106870842047272</v>
       </c>
       <c r="H21" t="n">
-        <v>1.032147342930211</v>
+        <v>1.032147342930233</v>
       </c>
       <c r="I21" t="n">
-        <v>3.679544342416967</v>
+        <v>3.679544342417042</v>
       </c>
       <c r="J21" t="n">
-        <v>10.09695091465018</v>
+        <v>10.09695091465038</v>
       </c>
       <c r="K21" t="n">
-        <v>17.25729733181726</v>
+        <v>17.25729733181761</v>
       </c>
       <c r="L21" t="n">
-        <v>23.20456594539515</v>
+        <v>23.20456594539563</v>
       </c>
       <c r="M21" t="n">
-        <v>27.07863396960867</v>
+        <v>27.07863396960923</v>
       </c>
       <c r="N21" t="n">
-        <v>27.7953248357941</v>
+        <v>27.79532483579467</v>
       </c>
       <c r="O21" t="n">
-        <v>25.42729196727301</v>
+        <v>25.42729196727353</v>
       </c>
       <c r="P21" t="n">
-        <v>20.40764351339489</v>
+        <v>20.40764351339531</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.64196924098132</v>
+        <v>13.6419692409816</v>
       </c>
       <c r="R21" t="n">
-        <v>6.635366842198037</v>
+        <v>6.635366842198173</v>
       </c>
       <c r="S21" t="n">
-        <v>1.985079017851699</v>
+        <v>1.98507901785174</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4307644905326357</v>
+        <v>0.4307644905326445</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007030976450478282</v>
+        <v>0.007030976450478426</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08959692394817129</v>
+        <v>0.08959692394817312</v>
       </c>
       <c r="H22" t="n">
-        <v>0.796598105648287</v>
+        <v>0.7965981056483034</v>
       </c>
       <c r="I22" t="n">
-        <v>2.694423858368643</v>
+        <v>2.694423858368698</v>
       </c>
       <c r="J22" t="n">
-        <v>6.334502523135709</v>
+        <v>6.334502523135839</v>
       </c>
       <c r="K22" t="n">
-        <v>10.40953352779663</v>
+        <v>10.40953352779684</v>
       </c>
       <c r="L22" t="n">
-        <v>13.32061903862176</v>
+        <v>13.32061903862203</v>
       </c>
       <c r="M22" t="n">
-        <v>14.04472508762107</v>
+        <v>14.04472508762135</v>
       </c>
       <c r="N22" t="n">
-        <v>13.71077291654153</v>
+        <v>13.71077291654181</v>
       </c>
       <c r="O22" t="n">
-        <v>12.6641179413288</v>
+        <v>12.66411794132905</v>
       </c>
       <c r="P22" t="n">
-        <v>10.83634069278609</v>
+        <v>10.83634069278632</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.502520604423689</v>
+        <v>7.502520604423842</v>
       </c>
       <c r="R22" t="n">
-        <v>4.028603507705955</v>
+        <v>4.028603507706038</v>
       </c>
       <c r="S22" t="n">
-        <v>1.561430029169494</v>
+        <v>1.561430029169526</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3828232205058226</v>
+        <v>0.3828232205058305</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00488710494262753</v>
+        <v>0.00488710494262763</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.598777936876735</v>
+        <v>0.5987779368767338</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038863</v>
+        <v>6.132234546038851</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144035</v>
+        <v>23.0843864114403</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999183</v>
+        <v>50.82052891999172</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798404</v>
+        <v>76.16679898798388</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367543</v>
+        <v>94.49164927367524</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086071</v>
+        <v>105.1401664086068</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217581</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119401</v>
+        <v>100.8873461119398</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529566</v>
+        <v>86.10501579529547</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089756</v>
+        <v>64.66128093089742</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733324</v>
+        <v>37.61298457733316</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657861</v>
+        <v>13.64465223657858</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677909</v>
+        <v>2.621150418677903</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013879</v>
+        <v>0.04790223495013868</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.320374440471359</v>
+        <v>0.3203744404713583</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447073</v>
+        <v>3.094142622447066</v>
       </c>
       <c r="I24" t="n">
-        <v>11.0304357793867</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926993</v>
+        <v>30.26835886926987</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085098</v>
+        <v>51.73344638085087</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287118</v>
+        <v>69.56200296287102</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995791</v>
+        <v>81.17557642995774</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259262</v>
+        <v>83.32405239259244</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425356</v>
+        <v>76.22522926425339</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948258</v>
+        <v>61.17746661948245</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595804</v>
+        <v>40.89551629595795</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031824</v>
+        <v>19.8913183303182</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650019</v>
+        <v>5.950814716650006</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268328</v>
+        <v>1.291333819268325</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048415</v>
+        <v>0.02107726582048411</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162241</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566067</v>
+        <v>2.388019664566062</v>
       </c>
       <c r="I25" t="n">
-        <v>8.07726896767336</v>
+        <v>8.077268967673344</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530704</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064858</v>
+        <v>31.20541034064851</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927755</v>
+        <v>39.93218158927746</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089229</v>
+        <v>42.1028865808922</v>
       </c>
       <c r="N25" t="n">
-        <v>41.1017740425773</v>
+        <v>41.10177404257722</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322413</v>
+        <v>37.96414084322405</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937313</v>
+        <v>32.48488099937306</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.49084778151128</v>
+        <v>22.49084778151123</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513676</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097286</v>
+        <v>4.680811551097277</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214775</v>
+        <v>1.147616812214773</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997588</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.598777936876735</v>
+        <v>0.5987779368767338</v>
       </c>
       <c r="H26" t="n">
-        <v>6.132234546038863</v>
+        <v>6.132234546038851</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144035</v>
+        <v>23.0843864114403</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999183</v>
+        <v>50.82052891999172</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798404</v>
+        <v>76.16679898798388</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367543</v>
+        <v>94.49164927367524</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086071</v>
+        <v>105.1401664086068</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217581</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119401</v>
+        <v>100.8873461119398</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529566</v>
+        <v>86.10501579529547</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089756</v>
+        <v>64.66128093089742</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733324</v>
+        <v>37.61298457733316</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657861</v>
+        <v>13.64465223657858</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677909</v>
+        <v>2.621150418677903</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013879</v>
+        <v>0.04790223495013868</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.320374440471359</v>
+        <v>0.3203744404713583</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447073</v>
+        <v>3.094142622447066</v>
       </c>
       <c r="I27" t="n">
-        <v>11.0304357793867</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926993</v>
+        <v>30.26835886926987</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085098</v>
+        <v>51.73344638085087</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287118</v>
+        <v>69.56200296287102</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995791</v>
+        <v>81.17557642995774</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259262</v>
+        <v>83.32405239259244</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425356</v>
+        <v>76.22522926425339</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948258</v>
+        <v>61.17746661948245</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595804</v>
+        <v>40.89551629595795</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031824</v>
+        <v>19.8913183303182</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650019</v>
+        <v>5.950814716650006</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268328</v>
+        <v>1.291333819268325</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048415</v>
+        <v>0.02107726582048411</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162241</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566067</v>
+        <v>2.388019664566062</v>
       </c>
       <c r="I28" t="n">
-        <v>8.07726896767336</v>
+        <v>8.077268967673344</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530704</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064858</v>
+        <v>31.20541034064851</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927755</v>
+        <v>39.93218158927746</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089229</v>
+        <v>42.1028865808922</v>
       </c>
       <c r="N28" t="n">
-        <v>41.1017740425773</v>
+        <v>41.10177404257722</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322413</v>
+        <v>37.96414084322405</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937313</v>
+        <v>32.48488099937306</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.49084778151128</v>
+        <v>22.49084778151123</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513676</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097286</v>
+        <v>4.680811551097277</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214775</v>
+        <v>1.147616812214773</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997588</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.5987779368767338</v>
       </c>
       <c r="H29" t="n">
-        <v>6.132234546038868</v>
+        <v>6.132234546038851</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144037</v>
+        <v>23.0843864114403</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999172</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798388</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367524</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086071</v>
+        <v>105.1401664086068</v>
       </c>
       <c r="N29" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119401</v>
+        <v>100.8873461119398</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529547</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089742</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733316</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657858</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677903</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013868</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713583</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447066</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926987</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085102</v>
+        <v>51.73344638085087</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287122</v>
+        <v>69.56200296287102</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995797</v>
+        <v>81.17557642995774</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259268</v>
+        <v>83.32405239259244</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425361</v>
+        <v>76.22522926425339</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948262</v>
+        <v>61.17746661948245</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595795</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031826</v>
+        <v>19.8913183303182</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650006</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268325</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048411</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566062</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673367</v>
+        <v>8.077268967673344</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K31" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064851</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927746</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089232</v>
+        <v>42.1028865808922</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257734</v>
+        <v>41.10177404257722</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322405</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937306</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151123</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S31" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097277</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214776</v>
+        <v>1.147616812214773</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767338</v>
       </c>
       <c r="H32" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038851</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144037</v>
+        <v>23.0843864114403</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999172</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798388</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367524</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086068</v>
       </c>
       <c r="N32" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O32" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119398</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529547</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089742</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733316</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657858</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677903</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013868</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713583</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447066</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926987</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085087</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287102</v>
       </c>
       <c r="M33" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995774</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259244</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425339</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948245</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595795</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031826</v>
+        <v>19.8913183303182</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650006</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268325</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048411</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566062</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673344</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K34" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064851</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927746</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089233</v>
+        <v>42.1028865808922</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257722</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322405</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937306</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151123</v>
       </c>
       <c r="R34" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097277</v>
       </c>
       <c r="T34" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214773</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767338</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038851</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144037</v>
+        <v>23.0843864114403</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999172</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798388</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367524</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086068</v>
       </c>
       <c r="N35" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O35" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119398</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529547</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089742</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733316</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657858</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677903</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013868</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713583</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447066</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926987</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085087</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287102</v>
       </c>
       <c r="M36" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995774</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259244</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425339</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948245</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595795</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031826</v>
+        <v>19.8913183303182</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650006</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268325</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048411</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566062</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673344</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K37" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064851</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927746</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089233</v>
+        <v>42.1028865808922</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257722</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322405</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937306</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151123</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097277</v>
       </c>
       <c r="T37" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214773</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767338</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038851</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144037</v>
+        <v>23.0843864114403</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999172</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798388</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367524</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086068</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O38" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119398</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529547</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089742</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733316</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657858</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677903</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013868</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713583</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447066</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926987</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085087</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287102</v>
       </c>
       <c r="M39" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995774</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259244</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425339</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948245</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595795</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031826</v>
+        <v>19.8913183303182</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650006</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268325</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048411</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566062</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673344</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064851</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927746</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089233</v>
+        <v>42.1028865808922</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257722</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322405</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937306</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151123</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097277</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214773</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767338</v>
       </c>
       <c r="H41" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038851</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>23.0843864114403</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999172</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798388</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367524</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086068</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O41" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119398</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529547</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089742</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733316</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657858</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677903</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013868</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713583</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447066</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926987</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085087</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287102</v>
       </c>
       <c r="M42" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995774</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259244</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425339</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948245</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595795</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031826</v>
+        <v>19.8913183303182</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650006</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268325</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048411</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566062</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673344</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064851</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927746</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089233</v>
+        <v>42.1028865808922</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257722</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322405</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937306</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151123</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097277</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214773</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.598777936876734</v>
       </c>
       <c r="H44" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038853</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144031</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999174</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798391</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367528</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086069</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217579</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119399</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529573</v>
+        <v>86.1050157952955</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089745</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733317</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657859</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677904</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013871</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713584</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447067</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938668</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926988</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085089</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287105</v>
       </c>
       <c r="M45" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995777</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259248</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425341</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948247</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595797</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031821</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650009</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268326</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048412</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162236</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566063</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673346</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530701</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064852</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927748</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089222</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257723</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322407</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937308</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151124</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513674</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097278</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214774</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997585</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>247.8874524576764</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7334829729927</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35263,16 +35263,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7334829729927</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0636470933147</v>
+        <v>163.063647093315</v>
       </c>
       <c r="K17" t="n">
-        <v>388.016241166179</v>
+        <v>388.0162411661795</v>
       </c>
       <c r="L17" t="n">
-        <v>529.8239484906601</v>
+        <v>529.8239484906607</v>
       </c>
       <c r="M17" t="n">
-        <v>586.5888276937621</v>
+        <v>586.5888276937627</v>
       </c>
       <c r="N17" t="n">
-        <v>568.7829918257812</v>
+        <v>568.7829918257819</v>
       </c>
       <c r="O17" t="n">
-        <v>478.1385521310661</v>
+        <v>478.1385521310667</v>
       </c>
       <c r="P17" t="n">
-        <v>380.4275390325455</v>
+        <v>380.4275390325461</v>
       </c>
       <c r="Q17" t="n">
-        <v>208.2824649583042</v>
+        <v>208.2824649583046</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>124.3545087123548</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>340.2261317381069</v>
       </c>
       <c r="L18" t="n">
-        <v>511.6551577618732</v>
+        <v>511.6551577618736</v>
       </c>
       <c r="M18" t="n">
-        <v>661.1914113702967</v>
+        <v>661.1914113702973</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>547.1649511500822</v>
+        <v>439.7929119141782</v>
       </c>
       <c r="P18" t="n">
-        <v>430.1261977723822</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.4567883951693</v>
+        <v>250.3743849529922</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.0711912146066</v>
+        <v>93.07119121460678</v>
       </c>
       <c r="L19" t="n">
-        <v>179.1061138606418</v>
+        <v>179.106113860642</v>
       </c>
       <c r="M19" t="n">
-        <v>202.218036540413</v>
+        <v>202.2180365404133</v>
       </c>
       <c r="N19" t="n">
-        <v>198.7508072915003</v>
+        <v>198.7508072915006</v>
       </c>
       <c r="O19" t="n">
-        <v>177.0123674784077</v>
+        <v>177.0123674784079</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9233768307442</v>
+        <v>131.9233768307445</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.95928461457617</v>
+        <v>10.95928461457631</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0636470933147</v>
+        <v>163.063647093315</v>
       </c>
       <c r="K20" t="n">
-        <v>388.016241166179</v>
+        <v>388.0162411661796</v>
       </c>
       <c r="L20" t="n">
-        <v>529.8239484906601</v>
+        <v>529.8239484906608</v>
       </c>
       <c r="M20" t="n">
-        <v>586.5888276937621</v>
+        <v>586.5888276937628</v>
       </c>
       <c r="N20" t="n">
-        <v>568.7829918257812</v>
+        <v>568.7829918257819</v>
       </c>
       <c r="O20" t="n">
-        <v>478.1385521310661</v>
+        <v>478.1385521310668</v>
       </c>
       <c r="P20" t="n">
-        <v>380.4275390325455</v>
+        <v>380.4275390325461</v>
       </c>
       <c r="Q20" t="n">
-        <v>208.2824649583042</v>
+        <v>208.2824649583046</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>124.3545087123546</v>
+        <v>124.3545087123548</v>
       </c>
       <c r="K21" t="n">
-        <v>340.2261317381066</v>
+        <v>340.2261317381069</v>
       </c>
       <c r="L21" t="n">
-        <v>511.6551577618732</v>
+        <v>511.6551577618737</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>123.6931743620131</v>
+        <v>670.8581255120927</v>
       </c>
       <c r="O21" t="n">
-        <v>547.1649511500822</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>430.1261977723822</v>
+        <v>430.1261977723826</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.3743849529919</v>
+        <v>250.3743849529922</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.0711912146066</v>
+        <v>93.07119121460681</v>
       </c>
       <c r="L22" t="n">
-        <v>179.1061138606418</v>
+        <v>179.106113860642</v>
       </c>
       <c r="M22" t="n">
-        <v>202.218036540413</v>
+        <v>202.2180365404133</v>
       </c>
       <c r="N22" t="n">
-        <v>198.7508072915003</v>
+        <v>198.7508072915006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.0123674784077</v>
+        <v>177.0123674784079</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9233768307442</v>
+        <v>131.9233768307445</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.95928461457617</v>
+        <v>10.95928461457633</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>196.9314106460808</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K23" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L23" t="n">
-        <v>592.7949742418864</v>
+        <v>592.7949742418862</v>
       </c>
       <c r="M23" t="n">
-        <v>656.6562270596986</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N23" t="n">
-        <v>639.9841549666693</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O23" t="n">
-        <v>545.3717914577263</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P23" t="n">
-        <v>437.8095533018834</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669743</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871402</v>
       </c>
       <c r="L24" t="n">
-        <v>558.0125947793492</v>
+        <v>558.012594779349</v>
       </c>
       <c r="M24" t="n">
-        <v>715.288353830646</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143695</v>
+        <v>473.5441852458948</v>
       </c>
       <c r="O24" t="n">
-        <v>280.2819382414318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784698</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>113.8670680274585</v>
       </c>
       <c r="L25" t="n">
-        <v>205.7176764112975</v>
+        <v>205.7176764112974</v>
       </c>
       <c r="M25" t="n">
         <v>230.2761980336842</v>
       </c>
       <c r="N25" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O25" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P25" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166376</v>
+        <v>25.94761179166371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.9314106460808</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K26" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L26" t="n">
-        <v>592.7949742418864</v>
+        <v>592.7949742418862</v>
       </c>
       <c r="M26" t="n">
-        <v>656.6562270596986</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N26" t="n">
-        <v>639.9841549666693</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O26" t="n">
-        <v>545.3717914577263</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P26" t="n">
-        <v>437.8095533018834</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>144.5259166669744</v>
+        <v>144.5259166669743</v>
       </c>
       <c r="K27" t="n">
-        <v>374.7022807871403</v>
+        <v>374.7022807871402</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793492</v>
+        <v>558.012594779349</v>
       </c>
       <c r="M27" t="n">
-        <v>153.2092288067999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458948</v>
       </c>
       <c r="P27" t="n">
-        <v>470.8960208784699</v>
+        <v>470.8960208784698</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>113.8670680274585</v>
       </c>
       <c r="L28" t="n">
-        <v>205.7176764112975</v>
+        <v>205.7176764112974</v>
       </c>
       <c r="M28" t="n">
         <v>230.2761980336842</v>
       </c>
       <c r="N28" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O28" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P28" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166376</v>
+        <v>25.94761179166371</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.9314106460808</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K29" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L29" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418862</v>
       </c>
       <c r="M29" t="n">
-        <v>656.6562270596986</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N29" t="n">
-        <v>639.9841549666693</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O29" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P29" t="n">
-        <v>437.8095533018834</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>237.5337352016494</v>
+        <v>374.7022807871402</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>558.012594779349</v>
       </c>
       <c r="M30" t="n">
-        <v>715.288353830646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>20.10721346580673</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470625</v>
       </c>
       <c r="P30" t="n">
-        <v>470.8960208784699</v>
+        <v>470.8960208784698</v>
       </c>
       <c r="Q30" t="n">
-        <v>277.6279320079687</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L31" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112974</v>
       </c>
       <c r="M31" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N31" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O31" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P31" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166371</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K32" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L32" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418862</v>
       </c>
       <c r="M32" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N32" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O32" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P32" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669743</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871402</v>
       </c>
       <c r="L33" t="n">
-        <v>558.0125947793492</v>
+        <v>558.012594779349</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>153.2092288068008</v>
       </c>
       <c r="N33" t="n">
-        <v>428.0450933087383</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470625</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784698</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L34" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112974</v>
       </c>
       <c r="M34" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N34" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O34" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P34" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K35" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L35" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418862</v>
       </c>
       <c r="M35" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N35" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O35" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P35" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669743</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871402</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3316445737182</v>
+        <v>558.012594779349</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470625</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784698</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>153.2092288068008</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L37" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112974</v>
       </c>
       <c r="M37" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N37" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O37" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P37" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166371</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K38" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L38" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418862</v>
       </c>
       <c r="M38" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N38" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O38" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P38" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>558.0125947793492</v>
+        <v>240.3316445737193</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>715.2883538306457</v>
       </c>
       <c r="N39" t="n">
-        <v>283.5191766417643</v>
+        <v>745.7260435143693</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470625</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L40" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112974</v>
       </c>
       <c r="M40" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N40" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O40" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P40" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166371</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K41" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418862</v>
       </c>
       <c r="M41" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N41" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O41" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P41" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>374.7022807871402</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3316445737182</v>
+        <v>558.012594779349</v>
       </c>
       <c r="M42" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143695</v>
+        <v>20.10721346580673</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470625</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>470.8960208784698</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L43" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112974</v>
       </c>
       <c r="M43" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N43" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O43" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P43" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166371</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460807</v>
       </c>
       <c r="K44" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197635</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418863</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596984</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666691</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577262</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018832</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871404</v>
+        <v>374.7022807871402</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793491</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>20.10721346580581</v>
+        <v>618.0701019128689</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>470.8960208784699</v>
+        <v>470.8960208784698</v>
       </c>
       <c r="Q45" t="n">
-        <v>277.6279320079687</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L46" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N46" t="n">
-        <v>226.1418084175361</v>
+        <v>226.141808417536</v>
       </c>
       <c r="O46" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803029</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373312</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166372</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
